--- a/testdata/RoleMappingNewDeploymentTemplate.xlsx
+++ b/testdata/RoleMappingNewDeploymentTemplate.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Role Mapping Template'!$A$4:$CU$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Role Mapping Template'!$A$4:$CT$4</definedName>
     <definedName name="Directors">[1]Definitions!$B$75:$C$96</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'Role Mapping Template'!#REF!</definedName>
     <definedName name="HML">[2]Data!$B$2:$B$4</definedName>
@@ -34,7 +34,7 @@
     <author>p.gill</author>
   </authors>
   <commentList>
-    <comment ref="AW3" authorId="0">
+    <comment ref="AV3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD3" authorId="0">
+    <comment ref="BC3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE3" authorId="0">
+    <comment ref="BD3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT3" authorId="0">
+    <comment ref="BS3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ3" authorId="1">
+    <comment ref="CP3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Job Title</t>
   </si>
@@ -1838,23 +1838,23 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:CW244"/>
+  <dimension ref="A1:CV244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="17" width="9" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9" style="4" customWidth="1"/>
-    <col min="23" max="96" width="5.85546875" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="97" max="97" width="11.85546875" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="98" max="99" width="5.85546875" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="100" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="21" width="9" style="4" customWidth="1"/>
+    <col min="22" max="95" width="5.85546875" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="96" max="96" width="11.85546875" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="97" max="98" width="5.85546875" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="99" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" ht="6" customHeight="1">
+    <row r="1" spans="1:100" ht="6" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>73</v>
       </c>
@@ -1955,9 +1955,8 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="35"/>
-    </row>
-    <row r="2" spans="1:101" ht="13.5" thickBot="1">
+    </row>
+    <row r="2" spans="1:100" ht="13.5" thickBot="1">
       <c r="A2" s="36" t="s">
         <v>107</v>
       </c>
@@ -1980,11 +1979,11 @@
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="45" t="s">
+      <c r="U2" s="39"/>
+      <c r="V2" s="45" t="s">
         <v>61</v>
       </c>
+      <c r="W2" s="46"/>
       <c r="X2" s="46"/>
       <c r="Y2" s="46"/>
       <c r="Z2" s="46"/>
@@ -1992,20 +1991,20 @@
       <c r="AB2" s="46"/>
       <c r="AC2" s="46"/>
       <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="48" t="s">
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="AG2" s="49"/>
       <c r="AH2" s="49"/>
       <c r="AI2" s="49"/>
       <c r="AJ2" s="49"/>
       <c r="AK2" s="49"/>
       <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50" t="s">
+      <c r="AM2" s="50" t="s">
         <v>63</v>
       </c>
+      <c r="AN2" s="50"/>
       <c r="AO2" s="50"/>
       <c r="AP2" s="50"/>
       <c r="AQ2" s="50"/>
@@ -2030,11 +2029,11 @@
       <c r="BJ2" s="50"/>
       <c r="BK2" s="50"/>
       <c r="BL2" s="50"/>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="54" t="s">
+      <c r="BM2" s="51"/>
+      <c r="BN2" s="54" t="s">
         <v>64</v>
       </c>
+      <c r="BO2" s="55"/>
       <c r="BP2" s="55"/>
       <c r="BQ2" s="55"/>
       <c r="BR2" s="55"/>
@@ -2043,10 +2042,10 @@
       <c r="BU2" s="55"/>
       <c r="BV2" s="55"/>
       <c r="BW2" s="55"/>
-      <c r="BX2" s="55"/>
-      <c r="BY2" s="52" t="s">
+      <c r="BX2" s="52" t="s">
         <v>65</v>
       </c>
+      <c r="BY2" s="52"/>
       <c r="BZ2" s="52"/>
       <c r="CA2" s="52"/>
       <c r="CB2" s="52"/>
@@ -2057,26 +2056,25 @@
       <c r="CG2" s="52"/>
       <c r="CH2" s="52"/>
       <c r="CI2" s="52"/>
-      <c r="CJ2" s="52"/>
-      <c r="CK2" s="53"/>
-      <c r="CL2" s="42" t="s">
+      <c r="CJ2" s="53"/>
+      <c r="CK2" s="42" t="s">
         <v>66</v>
       </c>
+      <c r="CL2" s="43"/>
       <c r="CM2" s="43"/>
       <c r="CN2" s="43"/>
       <c r="CO2" s="43"/>
       <c r="CP2" s="43"/>
-      <c r="CQ2" s="43"/>
-      <c r="CR2" s="44"/>
-      <c r="CS2" s="24" t="s">
+      <c r="CQ2" s="44"/>
+      <c r="CR2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="CT2" s="40" t="s">
+      <c r="CS2" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="CU2" s="41"/>
-    </row>
-    <row r="3" spans="1:101" s="3" customFormat="1" ht="226.5" thickBot="1">
+      <c r="CT2" s="41"/>
+    </row>
+    <row r="3" spans="1:100" s="3" customFormat="1" ht="226.5" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>69</v>
       </c>
@@ -2135,247 +2133,244 @@
         <v>71</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="U3" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="V3" s="34" t="s">
         <v>93</v>
       </c>
+      <c r="V3" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="W3" s="7" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF3" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="AF3" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="AG3" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH3" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM3" s="18" t="s">
         <v>55</v>
       </c>
+      <c r="AM3" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="AN3" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO3" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP3" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ3" s="13" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="AR3" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS3" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AT3" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU3" s="13" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="AV3" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW3" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX3" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY3" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ3" s="13" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="BA3" s="13" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="BB3" s="13" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="BC3" s="13" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="BD3" s="13" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="BE3" s="13" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="BF3" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BG3" s="13" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="BH3" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BI3" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BJ3" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BK3" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BL3" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="BM3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="BN3" s="13" t="s">
         <v>82</v>
       </c>
+      <c r="BN3" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="BO3" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BQ3" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BR3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="BS3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="BT3" s="8" t="s">
+      <c r="BS3" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="BT3" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="BU3" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BV3" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BW3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX3" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="BX3" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="BY3" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BZ3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="CB3" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CC3" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CD3" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CE3" s="10" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="CF3" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CG3" s="10" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="CH3" s="10" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="CI3" s="10" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="CJ3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CK3" s="10" t="s">
         <v>90</v>
       </c>
+      <c r="CK3" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="CL3" s="20" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="CM3" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CN3" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="CO3" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="CP3" s="20" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="CQ3" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="CR3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CS3" s="17" t="s">
+      <c r="CR3" s="17" t="s">
         <v>54</v>
       </c>
+      <c r="CS3" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="CT3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="CU3" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:101" s="3" customFormat="1" ht="13.5" thickBot="1">
+    <row r="4" spans="1:100" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -2397,26 +2392,26 @@
       <c r="S4" s="30"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
+      <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
+      <c r="AF4" s="19"/>
       <c r="AG4" s="19"/>
       <c r="AH4" s="19"/>
       <c r="AI4" s="19"/>
       <c r="AJ4" s="19"/>
       <c r="AK4" s="19"/>
       <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
+      <c r="AM4" s="14"/>
       <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
+      <c r="AO4" s="15"/>
       <c r="AP4" s="15"/>
       <c r="AQ4" s="15"/>
       <c r="AR4" s="15"/>
@@ -2441,7 +2436,7 @@
       <c r="BK4" s="15"/>
       <c r="BL4" s="15"/>
       <c r="BM4" s="15"/>
-      <c r="BN4" s="15"/>
+      <c r="BN4" s="6"/>
       <c r="BO4" s="6"/>
       <c r="BP4" s="6"/>
       <c r="BQ4" s="6"/>
@@ -2451,12 +2446,12 @@
       <c r="BU4" s="6"/>
       <c r="BV4" s="6"/>
       <c r="BW4" s="6"/>
-      <c r="BX4" s="6"/>
+      <c r="BX4" s="22"/>
       <c r="BY4" s="22"/>
       <c r="BZ4" s="22"/>
       <c r="CA4" s="22"/>
       <c r="CB4" s="22"/>
-      <c r="CC4" s="22"/>
+      <c r="CC4" s="23"/>
       <c r="CD4" s="23"/>
       <c r="CE4" s="23"/>
       <c r="CF4" s="23"/>
@@ -2464,21 +2459,20 @@
       <c r="CH4" s="23"/>
       <c r="CI4" s="23"/>
       <c r="CJ4" s="23"/>
-      <c r="CK4" s="23"/>
+      <c r="CK4" s="21"/>
       <c r="CL4" s="21"/>
       <c r="CM4" s="21"/>
       <c r="CN4" s="21"/>
       <c r="CO4" s="21"/>
       <c r="CP4" s="21"/>
       <c r="CQ4" s="21"/>
-      <c r="CR4" s="21"/>
-      <c r="CS4" s="25"/>
+      <c r="CR4" s="25"/>
+      <c r="CS4" s="26"/>
       <c r="CT4" s="26"/>
-      <c r="CU4" s="26"/>
+      <c r="CU4" s="4"/>
       <c r="CV4" s="4"/>
-      <c r="CW4" s="4"/>
-    </row>
-    <row r="5" spans="1:101" s="3" customFormat="1">
+    </row>
+    <row r="5" spans="1:100" s="3" customFormat="1">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2572,976 +2566,975 @@
       <c r="CT5" s="4"/>
       <c r="CU5" s="4"/>
       <c r="CV5" s="4"/>
-      <c r="CW5" s="4"/>
-    </row>
-    <row r="6" spans="1:101">
+    </row>
+    <row r="6" spans="1:100">
+      <c r="CU6" s="4"/>
       <c r="CV6" s="4"/>
-      <c r="CW6" s="4"/>
-    </row>
-    <row r="7" spans="1:101">
+    </row>
+    <row r="7" spans="1:100">
+      <c r="CU7" s="4"/>
       <c r="CV7" s="4"/>
-      <c r="CW7" s="4"/>
-    </row>
-    <row r="8" spans="1:101">
+    </row>
+    <row r="8" spans="1:100">
+      <c r="CU8" s="4"/>
       <c r="CV8" s="4"/>
-      <c r="CW8" s="4"/>
-    </row>
-    <row r="9" spans="1:101">
+    </row>
+    <row r="9" spans="1:100">
+      <c r="CU9" s="4"/>
       <c r="CV9" s="4"/>
-      <c r="CW9" s="4"/>
-    </row>
-    <row r="10" spans="1:101">
+    </row>
+    <row r="10" spans="1:100">
+      <c r="CU10" s="4"/>
       <c r="CV10" s="4"/>
-      <c r="CW10" s="4"/>
-    </row>
-    <row r="11" spans="1:101">
+    </row>
+    <row r="11" spans="1:100">
+      <c r="CU11" s="4"/>
       <c r="CV11" s="4"/>
-      <c r="CW11" s="4"/>
-    </row>
-    <row r="12" spans="1:101">
+    </row>
+    <row r="12" spans="1:100">
+      <c r="CU12" s="4"/>
       <c r="CV12" s="4"/>
-      <c r="CW12" s="4"/>
-    </row>
-    <row r="13" spans="1:101">
+    </row>
+    <row r="13" spans="1:100">
+      <c r="CU13" s="4"/>
       <c r="CV13" s="4"/>
-      <c r="CW13" s="4"/>
-    </row>
-    <row r="14" spans="1:101">
+    </row>
+    <row r="14" spans="1:100">
+      <c r="CU14" s="4"/>
       <c r="CV14" s="4"/>
-      <c r="CW14" s="4"/>
-    </row>
-    <row r="15" spans="1:101">
+    </row>
+    <row r="15" spans="1:100">
+      <c r="CU15" s="4"/>
       <c r="CV15" s="4"/>
-      <c r="CW15" s="4"/>
-    </row>
-    <row r="16" spans="1:101">
+    </row>
+    <row r="16" spans="1:100">
+      <c r="CU16" s="4"/>
       <c r="CV16" s="4"/>
-      <c r="CW16" s="4"/>
-    </row>
-    <row r="17" spans="100:101">
+    </row>
+    <row r="17" spans="99:100">
+      <c r="CU17" s="4"/>
       <c r="CV17" s="4"/>
-      <c r="CW17" s="4"/>
-    </row>
-    <row r="18" spans="100:101">
+    </row>
+    <row r="18" spans="99:100">
+      <c r="CU18" s="4"/>
       <c r="CV18" s="4"/>
-      <c r="CW18" s="4"/>
-    </row>
-    <row r="19" spans="100:101">
+    </row>
+    <row r="19" spans="99:100">
+      <c r="CU19" s="4"/>
       <c r="CV19" s="4"/>
-      <c r="CW19" s="4"/>
-    </row>
-    <row r="20" spans="100:101">
+    </row>
+    <row r="20" spans="99:100">
+      <c r="CU20" s="4"/>
       <c r="CV20" s="4"/>
-      <c r="CW20" s="4"/>
-    </row>
-    <row r="21" spans="100:101">
+    </row>
+    <row r="21" spans="99:100">
+      <c r="CU21" s="4"/>
       <c r="CV21" s="4"/>
-      <c r="CW21" s="4"/>
-    </row>
-    <row r="22" spans="100:101">
+    </row>
+    <row r="22" spans="99:100">
+      <c r="CU22" s="4"/>
       <c r="CV22" s="4"/>
-      <c r="CW22" s="4"/>
-    </row>
-    <row r="23" spans="100:101">
+    </row>
+    <row r="23" spans="99:100">
+      <c r="CU23" s="4"/>
       <c r="CV23" s="4"/>
-      <c r="CW23" s="4"/>
-    </row>
-    <row r="24" spans="100:101">
+    </row>
+    <row r="24" spans="99:100">
+      <c r="CU24" s="4"/>
       <c r="CV24" s="4"/>
-      <c r="CW24" s="4"/>
-    </row>
-    <row r="25" spans="100:101">
+    </row>
+    <row r="25" spans="99:100">
+      <c r="CU25" s="4"/>
       <c r="CV25" s="4"/>
-      <c r="CW25" s="4"/>
-    </row>
-    <row r="26" spans="100:101">
+    </row>
+    <row r="26" spans="99:100">
+      <c r="CU26" s="4"/>
       <c r="CV26" s="4"/>
-      <c r="CW26" s="4"/>
-    </row>
-    <row r="27" spans="100:101">
+    </row>
+    <row r="27" spans="99:100">
+      <c r="CU27" s="4"/>
       <c r="CV27" s="4"/>
-      <c r="CW27" s="4"/>
-    </row>
-    <row r="28" spans="100:101">
+    </row>
+    <row r="28" spans="99:100">
+      <c r="CU28" s="4"/>
       <c r="CV28" s="4"/>
-      <c r="CW28" s="4"/>
-    </row>
-    <row r="29" spans="100:101">
+    </row>
+    <row r="29" spans="99:100">
+      <c r="CU29" s="4"/>
       <c r="CV29" s="4"/>
-      <c r="CW29" s="4"/>
-    </row>
-    <row r="30" spans="100:101">
+    </row>
+    <row r="30" spans="99:100">
+      <c r="CU30" s="4"/>
       <c r="CV30" s="4"/>
-      <c r="CW30" s="4"/>
-    </row>
-    <row r="31" spans="100:101">
+    </row>
+    <row r="31" spans="99:100">
+      <c r="CU31" s="4"/>
       <c r="CV31" s="4"/>
-      <c r="CW31" s="4"/>
-    </row>
-    <row r="32" spans="100:101">
+    </row>
+    <row r="32" spans="99:100">
+      <c r="CU32" s="4"/>
       <c r="CV32" s="4"/>
-      <c r="CW32" s="4"/>
-    </row>
-    <row r="33" spans="100:101">
+    </row>
+    <row r="33" spans="99:100">
+      <c r="CU33" s="4"/>
       <c r="CV33" s="4"/>
-      <c r="CW33" s="4"/>
-    </row>
-    <row r="34" spans="100:101">
+    </row>
+    <row r="34" spans="99:100">
+      <c r="CU34" s="4"/>
       <c r="CV34" s="4"/>
-      <c r="CW34" s="4"/>
-    </row>
-    <row r="35" spans="100:101">
+    </row>
+    <row r="35" spans="99:100">
+      <c r="CU35" s="4"/>
       <c r="CV35" s="4"/>
-      <c r="CW35" s="4"/>
-    </row>
-    <row r="36" spans="100:101">
+    </row>
+    <row r="36" spans="99:100">
+      <c r="CU36" s="4"/>
       <c r="CV36" s="4"/>
-      <c r="CW36" s="4"/>
-    </row>
-    <row r="37" spans="100:101">
+    </row>
+    <row r="37" spans="99:100">
+      <c r="CU37" s="4"/>
       <c r="CV37" s="4"/>
-      <c r="CW37" s="4"/>
-    </row>
-    <row r="38" spans="100:101">
+    </row>
+    <row r="38" spans="99:100">
+      <c r="CU38" s="4"/>
       <c r="CV38" s="4"/>
-      <c r="CW38" s="4"/>
-    </row>
-    <row r="39" spans="100:101">
+    </row>
+    <row r="39" spans="99:100">
+      <c r="CU39" s="4"/>
       <c r="CV39" s="4"/>
-      <c r="CW39" s="4"/>
-    </row>
-    <row r="40" spans="100:101">
+    </row>
+    <row r="40" spans="99:100">
+      <c r="CU40" s="4"/>
       <c r="CV40" s="4"/>
-      <c r="CW40" s="4"/>
-    </row>
-    <row r="41" spans="100:101">
+    </row>
+    <row r="41" spans="99:100">
+      <c r="CU41" s="4"/>
       <c r="CV41" s="4"/>
-      <c r="CW41" s="4"/>
-    </row>
-    <row r="42" spans="100:101">
+    </row>
+    <row r="42" spans="99:100">
+      <c r="CU42" s="4"/>
       <c r="CV42" s="4"/>
-      <c r="CW42" s="4"/>
-    </row>
-    <row r="43" spans="100:101">
+    </row>
+    <row r="43" spans="99:100">
+      <c r="CU43" s="4"/>
       <c r="CV43" s="4"/>
-      <c r="CW43" s="4"/>
-    </row>
-    <row r="44" spans="100:101">
+    </row>
+    <row r="44" spans="99:100">
+      <c r="CU44" s="4"/>
       <c r="CV44" s="4"/>
-      <c r="CW44" s="4"/>
-    </row>
-    <row r="45" spans="100:101">
+    </row>
+    <row r="45" spans="99:100">
+      <c r="CU45" s="4"/>
       <c r="CV45" s="4"/>
-      <c r="CW45" s="4"/>
-    </row>
-    <row r="46" spans="100:101">
+    </row>
+    <row r="46" spans="99:100">
+      <c r="CU46" s="4"/>
       <c r="CV46" s="4"/>
-      <c r="CW46" s="4"/>
-    </row>
-    <row r="47" spans="100:101">
+    </row>
+    <row r="47" spans="99:100">
+      <c r="CU47" s="4"/>
       <c r="CV47" s="4"/>
-      <c r="CW47" s="4"/>
-    </row>
-    <row r="48" spans="100:101">
+    </row>
+    <row r="48" spans="99:100">
+      <c r="CU48" s="4"/>
       <c r="CV48" s="4"/>
-      <c r="CW48" s="4"/>
-    </row>
-    <row r="49" spans="100:101">
+    </row>
+    <row r="49" spans="99:100">
+      <c r="CU49" s="4"/>
       <c r="CV49" s="4"/>
-      <c r="CW49" s="4"/>
-    </row>
-    <row r="50" spans="100:101">
+    </row>
+    <row r="50" spans="99:100">
+      <c r="CU50" s="4"/>
       <c r="CV50" s="4"/>
-      <c r="CW50" s="4"/>
-    </row>
-    <row r="51" spans="100:101">
+    </row>
+    <row r="51" spans="99:100">
+      <c r="CU51" s="4"/>
       <c r="CV51" s="4"/>
-      <c r="CW51" s="4"/>
-    </row>
-    <row r="52" spans="100:101">
+    </row>
+    <row r="52" spans="99:100">
+      <c r="CU52" s="4"/>
       <c r="CV52" s="4"/>
-      <c r="CW52" s="4"/>
-    </row>
-    <row r="53" spans="100:101">
+    </row>
+    <row r="53" spans="99:100">
+      <c r="CU53" s="4"/>
       <c r="CV53" s="4"/>
-      <c r="CW53" s="4"/>
-    </row>
-    <row r="54" spans="100:101">
+    </row>
+    <row r="54" spans="99:100">
+      <c r="CU54" s="4"/>
       <c r="CV54" s="4"/>
-      <c r="CW54" s="4"/>
-    </row>
-    <row r="55" spans="100:101">
+    </row>
+    <row r="55" spans="99:100">
+      <c r="CU55" s="4"/>
       <c r="CV55" s="4"/>
-      <c r="CW55" s="4"/>
-    </row>
-    <row r="56" spans="100:101">
+    </row>
+    <row r="56" spans="99:100">
+      <c r="CU56" s="4"/>
       <c r="CV56" s="4"/>
-      <c r="CW56" s="4"/>
-    </row>
-    <row r="57" spans="100:101">
+    </row>
+    <row r="57" spans="99:100">
+      <c r="CU57" s="4"/>
       <c r="CV57" s="4"/>
-      <c r="CW57" s="4"/>
-    </row>
-    <row r="58" spans="100:101">
+    </row>
+    <row r="58" spans="99:100">
+      <c r="CU58" s="4"/>
       <c r="CV58" s="4"/>
-      <c r="CW58" s="4"/>
-    </row>
-    <row r="59" spans="100:101">
+    </row>
+    <row r="59" spans="99:100">
+      <c r="CU59" s="4"/>
       <c r="CV59" s="4"/>
-      <c r="CW59" s="4"/>
-    </row>
-    <row r="60" spans="100:101">
+    </row>
+    <row r="60" spans="99:100">
+      <c r="CU60" s="4"/>
       <c r="CV60" s="4"/>
-      <c r="CW60" s="4"/>
-    </row>
-    <row r="61" spans="100:101">
+    </row>
+    <row r="61" spans="99:100">
+      <c r="CU61" s="4"/>
       <c r="CV61" s="4"/>
-      <c r="CW61" s="4"/>
-    </row>
-    <row r="62" spans="100:101">
+    </row>
+    <row r="62" spans="99:100">
+      <c r="CU62" s="4"/>
       <c r="CV62" s="4"/>
-      <c r="CW62" s="4"/>
-    </row>
-    <row r="63" spans="100:101">
+    </row>
+    <row r="63" spans="99:100">
+      <c r="CU63" s="4"/>
       <c r="CV63" s="4"/>
-      <c r="CW63" s="4"/>
-    </row>
-    <row r="64" spans="100:101">
+    </row>
+    <row r="64" spans="99:100">
+      <c r="CU64" s="4"/>
       <c r="CV64" s="4"/>
-      <c r="CW64" s="4"/>
-    </row>
-    <row r="65" spans="100:101">
+    </row>
+    <row r="65" spans="99:100">
+      <c r="CU65" s="4"/>
       <c r="CV65" s="4"/>
-      <c r="CW65" s="4"/>
-    </row>
-    <row r="66" spans="100:101">
+    </row>
+    <row r="66" spans="99:100">
+      <c r="CU66" s="4"/>
       <c r="CV66" s="4"/>
-      <c r="CW66" s="4"/>
-    </row>
-    <row r="67" spans="100:101">
+    </row>
+    <row r="67" spans="99:100">
+      <c r="CU67" s="4"/>
       <c r="CV67" s="4"/>
-      <c r="CW67" s="4"/>
-    </row>
-    <row r="68" spans="100:101">
+    </row>
+    <row r="68" spans="99:100">
+      <c r="CU68" s="4"/>
       <c r="CV68" s="4"/>
-      <c r="CW68" s="4"/>
-    </row>
-    <row r="69" spans="100:101">
+    </row>
+    <row r="69" spans="99:100">
+      <c r="CU69" s="4"/>
       <c r="CV69" s="4"/>
-      <c r="CW69" s="4"/>
-    </row>
-    <row r="70" spans="100:101">
+    </row>
+    <row r="70" spans="99:100">
+      <c r="CU70" s="4"/>
       <c r="CV70" s="4"/>
-      <c r="CW70" s="4"/>
-    </row>
-    <row r="71" spans="100:101">
+    </row>
+    <row r="71" spans="99:100">
+      <c r="CU71" s="4"/>
       <c r="CV71" s="4"/>
-      <c r="CW71" s="4"/>
-    </row>
-    <row r="72" spans="100:101">
+    </row>
+    <row r="72" spans="99:100">
+      <c r="CU72" s="4"/>
       <c r="CV72" s="4"/>
-      <c r="CW72" s="4"/>
-    </row>
-    <row r="73" spans="100:101">
+    </row>
+    <row r="73" spans="99:100">
+      <c r="CU73" s="4"/>
       <c r="CV73" s="4"/>
-      <c r="CW73" s="4"/>
-    </row>
-    <row r="74" spans="100:101">
+    </row>
+    <row r="74" spans="99:100">
+      <c r="CU74" s="4"/>
       <c r="CV74" s="4"/>
-      <c r="CW74" s="4"/>
-    </row>
-    <row r="75" spans="100:101">
+    </row>
+    <row r="75" spans="99:100">
+      <c r="CU75" s="4"/>
       <c r="CV75" s="4"/>
-      <c r="CW75" s="4"/>
-    </row>
-    <row r="76" spans="100:101">
+    </row>
+    <row r="76" spans="99:100">
+      <c r="CU76" s="4"/>
       <c r="CV76" s="4"/>
-      <c r="CW76" s="4"/>
-    </row>
-    <row r="77" spans="100:101">
+    </row>
+    <row r="77" spans="99:100">
+      <c r="CU77" s="4"/>
       <c r="CV77" s="4"/>
-      <c r="CW77" s="4"/>
-    </row>
-    <row r="78" spans="100:101">
+    </row>
+    <row r="78" spans="99:100">
+      <c r="CU78" s="4"/>
       <c r="CV78" s="4"/>
-      <c r="CW78" s="4"/>
-    </row>
-    <row r="79" spans="100:101">
+    </row>
+    <row r="79" spans="99:100">
+      <c r="CU79" s="4"/>
       <c r="CV79" s="4"/>
-      <c r="CW79" s="4"/>
-    </row>
-    <row r="80" spans="100:101">
+    </row>
+    <row r="80" spans="99:100">
+      <c r="CU80" s="4"/>
       <c r="CV80" s="4"/>
-      <c r="CW80" s="4"/>
-    </row>
-    <row r="81" spans="100:101">
+    </row>
+    <row r="81" spans="99:100">
+      <c r="CU81" s="4"/>
       <c r="CV81" s="4"/>
-      <c r="CW81" s="4"/>
-    </row>
-    <row r="82" spans="100:101">
+    </row>
+    <row r="82" spans="99:100">
+      <c r="CU82" s="4"/>
       <c r="CV82" s="4"/>
-      <c r="CW82" s="4"/>
-    </row>
-    <row r="83" spans="100:101">
+    </row>
+    <row r="83" spans="99:100">
+      <c r="CU83" s="4"/>
       <c r="CV83" s="4"/>
-      <c r="CW83" s="4"/>
-    </row>
-    <row r="84" spans="100:101">
+    </row>
+    <row r="84" spans="99:100">
+      <c r="CU84" s="4"/>
       <c r="CV84" s="4"/>
-      <c r="CW84" s="4"/>
-    </row>
-    <row r="85" spans="100:101">
+    </row>
+    <row r="85" spans="99:100">
+      <c r="CU85" s="4"/>
       <c r="CV85" s="4"/>
-      <c r="CW85" s="4"/>
-    </row>
-    <row r="86" spans="100:101">
+    </row>
+    <row r="86" spans="99:100">
+      <c r="CU86" s="4"/>
       <c r="CV86" s="4"/>
-      <c r="CW86" s="4"/>
-    </row>
-    <row r="87" spans="100:101">
+    </row>
+    <row r="87" spans="99:100">
+      <c r="CU87" s="4"/>
       <c r="CV87" s="4"/>
-      <c r="CW87" s="4"/>
-    </row>
-    <row r="88" spans="100:101">
+    </row>
+    <row r="88" spans="99:100">
+      <c r="CU88" s="4"/>
       <c r="CV88" s="4"/>
-      <c r="CW88" s="4"/>
-    </row>
-    <row r="89" spans="100:101">
+    </row>
+    <row r="89" spans="99:100">
+      <c r="CU89" s="4"/>
       <c r="CV89" s="4"/>
-      <c r="CW89" s="4"/>
-    </row>
-    <row r="90" spans="100:101">
+    </row>
+    <row r="90" spans="99:100">
+      <c r="CU90" s="4"/>
       <c r="CV90" s="4"/>
-      <c r="CW90" s="4"/>
-    </row>
-    <row r="91" spans="100:101">
+    </row>
+    <row r="91" spans="99:100">
+      <c r="CU91" s="4"/>
       <c r="CV91" s="4"/>
-      <c r="CW91" s="4"/>
-    </row>
-    <row r="92" spans="100:101">
+    </row>
+    <row r="92" spans="99:100">
+      <c r="CU92" s="4"/>
       <c r="CV92" s="4"/>
-      <c r="CW92" s="4"/>
-    </row>
-    <row r="93" spans="100:101">
+    </row>
+    <row r="93" spans="99:100">
+      <c r="CU93" s="4"/>
       <c r="CV93" s="4"/>
-      <c r="CW93" s="4"/>
-    </row>
-    <row r="94" spans="100:101">
+    </row>
+    <row r="94" spans="99:100">
+      <c r="CU94" s="4"/>
       <c r="CV94" s="4"/>
-      <c r="CW94" s="4"/>
-    </row>
-    <row r="95" spans="100:101">
+    </row>
+    <row r="95" spans="99:100">
+      <c r="CU95" s="4"/>
       <c r="CV95" s="4"/>
-      <c r="CW95" s="4"/>
-    </row>
-    <row r="96" spans="100:101">
+    </row>
+    <row r="96" spans="99:100">
+      <c r="CU96" s="4"/>
       <c r="CV96" s="4"/>
-      <c r="CW96" s="4"/>
-    </row>
-    <row r="97" spans="100:101">
+    </row>
+    <row r="97" spans="99:100">
+      <c r="CU97" s="4"/>
       <c r="CV97" s="4"/>
-      <c r="CW97" s="4"/>
-    </row>
-    <row r="98" spans="100:101">
+    </row>
+    <row r="98" spans="99:100">
+      <c r="CU98" s="4"/>
       <c r="CV98" s="4"/>
-      <c r="CW98" s="4"/>
-    </row>
-    <row r="99" spans="100:101">
+    </row>
+    <row r="99" spans="99:100">
+      <c r="CU99" s="4"/>
       <c r="CV99" s="4"/>
-      <c r="CW99" s="4"/>
-    </row>
-    <row r="100" spans="100:101">
+    </row>
+    <row r="100" spans="99:100">
+      <c r="CU100" s="4"/>
       <c r="CV100" s="4"/>
-      <c r="CW100" s="4"/>
-    </row>
-    <row r="101" spans="100:101">
+    </row>
+    <row r="101" spans="99:100">
+      <c r="CU101" s="4"/>
       <c r="CV101" s="4"/>
-      <c r="CW101" s="4"/>
-    </row>
-    <row r="102" spans="100:101">
+    </row>
+    <row r="102" spans="99:100">
+      <c r="CU102" s="4"/>
       <c r="CV102" s="4"/>
-      <c r="CW102" s="4"/>
-    </row>
-    <row r="103" spans="100:101">
+    </row>
+    <row r="103" spans="99:100">
+      <c r="CU103" s="4"/>
       <c r="CV103" s="4"/>
-      <c r="CW103" s="4"/>
-    </row>
-    <row r="104" spans="100:101">
+    </row>
+    <row r="104" spans="99:100">
+      <c r="CU104" s="4"/>
       <c r="CV104" s="4"/>
-      <c r="CW104" s="4"/>
-    </row>
-    <row r="105" spans="100:101">
+    </row>
+    <row r="105" spans="99:100">
+      <c r="CU105" s="4"/>
       <c r="CV105" s="4"/>
-      <c r="CW105" s="4"/>
-    </row>
-    <row r="106" spans="100:101">
+    </row>
+    <row r="106" spans="99:100">
+      <c r="CU106" s="4"/>
       <c r="CV106" s="4"/>
-      <c r="CW106" s="4"/>
-    </row>
-    <row r="107" spans="100:101">
+    </row>
+    <row r="107" spans="99:100">
+      <c r="CU107" s="4"/>
       <c r="CV107" s="4"/>
-      <c r="CW107" s="4"/>
-    </row>
-    <row r="108" spans="100:101">
+    </row>
+    <row r="108" spans="99:100">
+      <c r="CU108" s="4"/>
       <c r="CV108" s="4"/>
-      <c r="CW108" s="4"/>
-    </row>
-    <row r="109" spans="100:101">
+    </row>
+    <row r="109" spans="99:100">
+      <c r="CU109" s="4"/>
       <c r="CV109" s="4"/>
-      <c r="CW109" s="4"/>
-    </row>
-    <row r="110" spans="100:101">
+    </row>
+    <row r="110" spans="99:100">
+      <c r="CU110" s="4"/>
       <c r="CV110" s="4"/>
-      <c r="CW110" s="4"/>
-    </row>
-    <row r="111" spans="100:101">
+    </row>
+    <row r="111" spans="99:100">
+      <c r="CU111" s="4"/>
       <c r="CV111" s="4"/>
-      <c r="CW111" s="4"/>
-    </row>
-    <row r="112" spans="100:101">
+    </row>
+    <row r="112" spans="99:100">
+      <c r="CU112" s="4"/>
       <c r="CV112" s="4"/>
-      <c r="CW112" s="4"/>
-    </row>
-    <row r="113" spans="100:101">
+    </row>
+    <row r="113" spans="99:100">
+      <c r="CU113" s="4"/>
       <c r="CV113" s="4"/>
-      <c r="CW113" s="4"/>
-    </row>
-    <row r="114" spans="100:101">
+    </row>
+    <row r="114" spans="99:100">
+      <c r="CU114" s="4"/>
       <c r="CV114" s="4"/>
-      <c r="CW114" s="4"/>
-    </row>
-    <row r="115" spans="100:101">
+    </row>
+    <row r="115" spans="99:100">
+      <c r="CU115" s="4"/>
       <c r="CV115" s="4"/>
-      <c r="CW115" s="4"/>
-    </row>
-    <row r="116" spans="100:101">
+    </row>
+    <row r="116" spans="99:100">
+      <c r="CU116" s="4"/>
       <c r="CV116" s="4"/>
-      <c r="CW116" s="4"/>
-    </row>
-    <row r="117" spans="100:101">
+    </row>
+    <row r="117" spans="99:100">
+      <c r="CU117" s="4"/>
       <c r="CV117" s="4"/>
-      <c r="CW117" s="4"/>
-    </row>
-    <row r="118" spans="100:101">
+    </row>
+    <row r="118" spans="99:100">
+      <c r="CU118" s="4"/>
       <c r="CV118" s="4"/>
-      <c r="CW118" s="4"/>
-    </row>
-    <row r="119" spans="100:101">
+    </row>
+    <row r="119" spans="99:100">
+      <c r="CU119" s="4"/>
       <c r="CV119" s="4"/>
-      <c r="CW119" s="4"/>
-    </row>
-    <row r="120" spans="100:101">
+    </row>
+    <row r="120" spans="99:100">
+      <c r="CU120" s="4"/>
       <c r="CV120" s="4"/>
-      <c r="CW120" s="4"/>
-    </row>
-    <row r="121" spans="100:101">
+    </row>
+    <row r="121" spans="99:100">
+      <c r="CU121" s="4"/>
       <c r="CV121" s="4"/>
-      <c r="CW121" s="4"/>
-    </row>
-    <row r="122" spans="100:101">
+    </row>
+    <row r="122" spans="99:100">
+      <c r="CU122" s="4"/>
       <c r="CV122" s="4"/>
-      <c r="CW122" s="4"/>
-    </row>
-    <row r="123" spans="100:101">
+    </row>
+    <row r="123" spans="99:100">
+      <c r="CU123" s="4"/>
       <c r="CV123" s="4"/>
-      <c r="CW123" s="4"/>
-    </row>
-    <row r="124" spans="100:101">
+    </row>
+    <row r="124" spans="99:100">
+      <c r="CU124" s="4"/>
       <c r="CV124" s="4"/>
-      <c r="CW124" s="4"/>
-    </row>
-    <row r="125" spans="100:101">
+    </row>
+    <row r="125" spans="99:100">
+      <c r="CU125" s="4"/>
       <c r="CV125" s="4"/>
-      <c r="CW125" s="4"/>
-    </row>
-    <row r="126" spans="100:101">
+    </row>
+    <row r="126" spans="99:100">
+      <c r="CU126" s="4"/>
       <c r="CV126" s="4"/>
-      <c r="CW126" s="4"/>
-    </row>
-    <row r="127" spans="100:101">
+    </row>
+    <row r="127" spans="99:100">
+      <c r="CU127" s="4"/>
       <c r="CV127" s="4"/>
-      <c r="CW127" s="4"/>
-    </row>
-    <row r="128" spans="100:101">
+    </row>
+    <row r="128" spans="99:100">
+      <c r="CU128" s="4"/>
       <c r="CV128" s="4"/>
-      <c r="CW128" s="4"/>
-    </row>
-    <row r="129" spans="100:101">
+    </row>
+    <row r="129" spans="99:100">
+      <c r="CU129" s="4"/>
       <c r="CV129" s="4"/>
-      <c r="CW129" s="4"/>
-    </row>
-    <row r="130" spans="100:101">
+    </row>
+    <row r="130" spans="99:100">
+      <c r="CU130" s="4"/>
       <c r="CV130" s="4"/>
-      <c r="CW130" s="4"/>
-    </row>
-    <row r="131" spans="100:101">
+    </row>
+    <row r="131" spans="99:100">
+      <c r="CU131" s="4"/>
       <c r="CV131" s="4"/>
-      <c r="CW131" s="4"/>
-    </row>
-    <row r="132" spans="100:101">
+    </row>
+    <row r="132" spans="99:100">
+      <c r="CU132" s="4"/>
       <c r="CV132" s="4"/>
-      <c r="CW132" s="4"/>
-    </row>
-    <row r="133" spans="100:101">
+    </row>
+    <row r="133" spans="99:100">
+      <c r="CU133" s="4"/>
       <c r="CV133" s="4"/>
-      <c r="CW133" s="4"/>
-    </row>
-    <row r="134" spans="100:101">
+    </row>
+    <row r="134" spans="99:100">
+      <c r="CU134" s="4"/>
       <c r="CV134" s="4"/>
-      <c r="CW134" s="4"/>
-    </row>
-    <row r="135" spans="100:101">
+    </row>
+    <row r="135" spans="99:100">
+      <c r="CU135" s="4"/>
       <c r="CV135" s="4"/>
-      <c r="CW135" s="4"/>
-    </row>
-    <row r="136" spans="100:101">
+    </row>
+    <row r="136" spans="99:100">
+      <c r="CU136" s="4"/>
       <c r="CV136" s="4"/>
-      <c r="CW136" s="4"/>
-    </row>
-    <row r="137" spans="100:101">
+    </row>
+    <row r="137" spans="99:100">
+      <c r="CU137" s="4"/>
       <c r="CV137" s="4"/>
-      <c r="CW137" s="4"/>
-    </row>
-    <row r="138" spans="100:101">
+    </row>
+    <row r="138" spans="99:100">
+      <c r="CU138" s="4"/>
       <c r="CV138" s="4"/>
-      <c r="CW138" s="4"/>
-    </row>
-    <row r="139" spans="100:101">
+    </row>
+    <row r="139" spans="99:100">
+      <c r="CU139" s="4"/>
       <c r="CV139" s="4"/>
-      <c r="CW139" s="4"/>
-    </row>
-    <row r="140" spans="100:101">
+    </row>
+    <row r="140" spans="99:100">
+      <c r="CU140" s="4"/>
       <c r="CV140" s="4"/>
-      <c r="CW140" s="4"/>
-    </row>
-    <row r="141" spans="100:101">
+    </row>
+    <row r="141" spans="99:100">
+      <c r="CU141" s="4"/>
       <c r="CV141" s="4"/>
-      <c r="CW141" s="4"/>
-    </row>
-    <row r="142" spans="100:101">
+    </row>
+    <row r="142" spans="99:100">
+      <c r="CU142" s="4"/>
       <c r="CV142" s="4"/>
-      <c r="CW142" s="4"/>
-    </row>
-    <row r="143" spans="100:101">
+    </row>
+    <row r="143" spans="99:100">
+      <c r="CU143" s="4"/>
       <c r="CV143" s="4"/>
-      <c r="CW143" s="4"/>
-    </row>
-    <row r="144" spans="100:101">
+    </row>
+    <row r="144" spans="99:100">
+      <c r="CU144" s="4"/>
       <c r="CV144" s="4"/>
-      <c r="CW144" s="4"/>
-    </row>
-    <row r="145" spans="100:101">
+    </row>
+    <row r="145" spans="99:100">
+      <c r="CU145" s="4"/>
       <c r="CV145" s="4"/>
-      <c r="CW145" s="4"/>
-    </row>
-    <row r="146" spans="100:101">
+    </row>
+    <row r="146" spans="99:100">
+      <c r="CU146" s="4"/>
       <c r="CV146" s="4"/>
-      <c r="CW146" s="4"/>
-    </row>
-    <row r="147" spans="100:101">
+    </row>
+    <row r="147" spans="99:100">
+      <c r="CU147" s="4"/>
       <c r="CV147" s="4"/>
-      <c r="CW147" s="4"/>
-    </row>
-    <row r="148" spans="100:101">
+    </row>
+    <row r="148" spans="99:100">
+      <c r="CU148" s="4"/>
       <c r="CV148" s="4"/>
-      <c r="CW148" s="4"/>
-    </row>
-    <row r="149" spans="100:101">
+    </row>
+    <row r="149" spans="99:100">
+      <c r="CU149" s="4"/>
       <c r="CV149" s="4"/>
-      <c r="CW149" s="4"/>
-    </row>
-    <row r="150" spans="100:101">
+    </row>
+    <row r="150" spans="99:100">
+      <c r="CU150" s="4"/>
       <c r="CV150" s="4"/>
-      <c r="CW150" s="4"/>
-    </row>
-    <row r="151" spans="100:101">
+    </row>
+    <row r="151" spans="99:100">
+      <c r="CU151" s="4"/>
       <c r="CV151" s="4"/>
-      <c r="CW151" s="4"/>
-    </row>
-    <row r="152" spans="100:101">
+    </row>
+    <row r="152" spans="99:100">
+      <c r="CU152" s="4"/>
       <c r="CV152" s="4"/>
-      <c r="CW152" s="4"/>
-    </row>
-    <row r="153" spans="100:101">
+    </row>
+    <row r="153" spans="99:100">
+      <c r="CU153" s="4"/>
       <c r="CV153" s="4"/>
-      <c r="CW153" s="4"/>
-    </row>
-    <row r="154" spans="100:101">
+    </row>
+    <row r="154" spans="99:100">
+      <c r="CU154" s="4"/>
       <c r="CV154" s="4"/>
-      <c r="CW154" s="4"/>
-    </row>
-    <row r="155" spans="100:101">
+    </row>
+    <row r="155" spans="99:100">
+      <c r="CU155" s="4"/>
       <c r="CV155" s="4"/>
-      <c r="CW155" s="4"/>
-    </row>
-    <row r="156" spans="100:101">
+    </row>
+    <row r="156" spans="99:100">
+      <c r="CU156" s="4"/>
       <c r="CV156" s="4"/>
-      <c r="CW156" s="4"/>
-    </row>
-    <row r="157" spans="100:101">
+    </row>
+    <row r="157" spans="99:100">
+      <c r="CU157" s="4"/>
       <c r="CV157" s="4"/>
-      <c r="CW157" s="4"/>
-    </row>
-    <row r="158" spans="100:101">
+    </row>
+    <row r="158" spans="99:100">
+      <c r="CU158" s="4"/>
       <c r="CV158" s="4"/>
-      <c r="CW158" s="4"/>
-    </row>
-    <row r="159" spans="100:101">
+    </row>
+    <row r="159" spans="99:100">
+      <c r="CU159" s="4"/>
       <c r="CV159" s="4"/>
-      <c r="CW159" s="4"/>
-    </row>
-    <row r="160" spans="100:101">
+    </row>
+    <row r="160" spans="99:100">
+      <c r="CU160" s="4"/>
       <c r="CV160" s="4"/>
-      <c r="CW160" s="4"/>
-    </row>
-    <row r="161" spans="100:101">
+    </row>
+    <row r="161" spans="99:100">
+      <c r="CU161" s="4"/>
       <c r="CV161" s="4"/>
-      <c r="CW161" s="4"/>
-    </row>
-    <row r="162" spans="100:101">
+    </row>
+    <row r="162" spans="99:100">
+      <c r="CU162" s="4"/>
       <c r="CV162" s="4"/>
-      <c r="CW162" s="4"/>
-    </row>
-    <row r="163" spans="100:101">
+    </row>
+    <row r="163" spans="99:100">
+      <c r="CU163" s="4"/>
       <c r="CV163" s="4"/>
-      <c r="CW163" s="4"/>
-    </row>
-    <row r="164" spans="100:101">
+    </row>
+    <row r="164" spans="99:100">
+      <c r="CU164" s="4"/>
       <c r="CV164" s="4"/>
-      <c r="CW164" s="4"/>
-    </row>
-    <row r="165" spans="100:101">
+    </row>
+    <row r="165" spans="99:100">
+      <c r="CU165" s="4"/>
       <c r="CV165" s="4"/>
-      <c r="CW165" s="4"/>
-    </row>
-    <row r="166" spans="100:101">
+    </row>
+    <row r="166" spans="99:100">
+      <c r="CU166" s="4"/>
       <c r="CV166" s="4"/>
-      <c r="CW166" s="4"/>
-    </row>
-    <row r="167" spans="100:101">
+    </row>
+    <row r="167" spans="99:100">
+      <c r="CU167" s="4"/>
       <c r="CV167" s="4"/>
-      <c r="CW167" s="4"/>
-    </row>
-    <row r="168" spans="100:101">
+    </row>
+    <row r="168" spans="99:100">
+      <c r="CU168" s="4"/>
       <c r="CV168" s="4"/>
-      <c r="CW168" s="4"/>
-    </row>
-    <row r="169" spans="100:101">
+    </row>
+    <row r="169" spans="99:100">
+      <c r="CU169" s="4"/>
       <c r="CV169" s="4"/>
-      <c r="CW169" s="4"/>
-    </row>
-    <row r="170" spans="100:101">
+    </row>
+    <row r="170" spans="99:100">
+      <c r="CU170" s="4"/>
       <c r="CV170" s="4"/>
-      <c r="CW170" s="4"/>
-    </row>
-    <row r="171" spans="100:101">
+    </row>
+    <row r="171" spans="99:100">
+      <c r="CU171" s="4"/>
       <c r="CV171" s="4"/>
-      <c r="CW171" s="4"/>
-    </row>
-    <row r="172" spans="100:101">
+    </row>
+    <row r="172" spans="99:100">
+      <c r="CU172" s="4"/>
       <c r="CV172" s="4"/>
-      <c r="CW172" s="4"/>
-    </row>
-    <row r="173" spans="100:101">
+    </row>
+    <row r="173" spans="99:100">
+      <c r="CU173" s="4"/>
       <c r="CV173" s="4"/>
-      <c r="CW173" s="4"/>
-    </row>
-    <row r="174" spans="100:101">
+    </row>
+    <row r="174" spans="99:100">
+      <c r="CU174" s="4"/>
       <c r="CV174" s="4"/>
-      <c r="CW174" s="4"/>
-    </row>
-    <row r="175" spans="100:101">
+    </row>
+    <row r="175" spans="99:100">
+      <c r="CU175" s="4"/>
       <c r="CV175" s="4"/>
-      <c r="CW175" s="4"/>
-    </row>
-    <row r="176" spans="100:101">
+    </row>
+    <row r="176" spans="99:100">
+      <c r="CU176" s="4"/>
       <c r="CV176" s="4"/>
-      <c r="CW176" s="4"/>
-    </row>
-    <row r="177" spans="100:101">
+    </row>
+    <row r="177" spans="99:100">
+      <c r="CU177" s="4"/>
       <c r="CV177" s="4"/>
-      <c r="CW177" s="4"/>
-    </row>
-    <row r="178" spans="100:101">
+    </row>
+    <row r="178" spans="99:100">
+      <c r="CU178" s="4"/>
       <c r="CV178" s="4"/>
-      <c r="CW178" s="4"/>
-    </row>
-    <row r="179" spans="100:101">
+    </row>
+    <row r="179" spans="99:100">
+      <c r="CU179" s="4"/>
       <c r="CV179" s="4"/>
-      <c r="CW179" s="4"/>
-    </row>
-    <row r="180" spans="100:101">
+    </row>
+    <row r="180" spans="99:100">
+      <c r="CU180" s="4"/>
       <c r="CV180" s="4"/>
-      <c r="CW180" s="4"/>
-    </row>
-    <row r="181" spans="100:101">
+    </row>
+    <row r="181" spans="99:100">
+      <c r="CU181" s="4"/>
       <c r="CV181" s="4"/>
-      <c r="CW181" s="4"/>
-    </row>
-    <row r="182" spans="100:101">
+    </row>
+    <row r="182" spans="99:100">
+      <c r="CU182" s="4"/>
       <c r="CV182" s="4"/>
-      <c r="CW182" s="4"/>
-    </row>
-    <row r="183" spans="100:101">
+    </row>
+    <row r="183" spans="99:100">
+      <c r="CU183" s="4"/>
       <c r="CV183" s="4"/>
-      <c r="CW183" s="4"/>
-    </row>
-    <row r="184" spans="100:101">
+    </row>
+    <row r="184" spans="99:100">
+      <c r="CU184" s="4"/>
       <c r="CV184" s="4"/>
-      <c r="CW184" s="4"/>
-    </row>
-    <row r="185" spans="100:101">
+    </row>
+    <row r="185" spans="99:100">
+      <c r="CU185" s="4"/>
       <c r="CV185" s="4"/>
-      <c r="CW185" s="4"/>
-    </row>
-    <row r="186" spans="100:101">
+    </row>
+    <row r="186" spans="99:100">
+      <c r="CU186" s="4"/>
       <c r="CV186" s="4"/>
-      <c r="CW186" s="4"/>
-    </row>
-    <row r="187" spans="100:101">
+    </row>
+    <row r="187" spans="99:100">
+      <c r="CU187" s="4"/>
       <c r="CV187" s="4"/>
-      <c r="CW187" s="4"/>
-    </row>
-    <row r="188" spans="100:101">
+    </row>
+    <row r="188" spans="99:100">
+      <c r="CU188" s="4"/>
       <c r="CV188" s="4"/>
-      <c r="CW188" s="4"/>
-    </row>
-    <row r="189" spans="100:101">
+    </row>
+    <row r="189" spans="99:100">
+      <c r="CU189" s="4"/>
       <c r="CV189" s="4"/>
-      <c r="CW189" s="4"/>
-    </row>
-    <row r="190" spans="100:101">
+    </row>
+    <row r="190" spans="99:100">
+      <c r="CU190" s="4"/>
       <c r="CV190" s="4"/>
-      <c r="CW190" s="4"/>
-    </row>
-    <row r="191" spans="100:101">
+    </row>
+    <row r="191" spans="99:100">
+      <c r="CU191" s="4"/>
       <c r="CV191" s="4"/>
-      <c r="CW191" s="4"/>
-    </row>
-    <row r="192" spans="100:101">
+    </row>
+    <row r="192" spans="99:100">
+      <c r="CU192" s="4"/>
       <c r="CV192" s="4"/>
-      <c r="CW192" s="4"/>
-    </row>
-    <row r="193" spans="100:101">
+    </row>
+    <row r="193" spans="99:100">
+      <c r="CU193" s="4"/>
       <c r="CV193" s="4"/>
-      <c r="CW193" s="4"/>
-    </row>
-    <row r="194" spans="100:101">
+    </row>
+    <row r="194" spans="99:100">
+      <c r="CU194" s="4"/>
       <c r="CV194" s="4"/>
-      <c r="CW194" s="4"/>
-    </row>
-    <row r="195" spans="100:101">
+    </row>
+    <row r="195" spans="99:100">
+      <c r="CU195" s="4"/>
       <c r="CV195" s="4"/>
-      <c r="CW195" s="4"/>
-    </row>
-    <row r="196" spans="100:101">
+    </row>
+    <row r="196" spans="99:100">
+      <c r="CU196" s="4"/>
       <c r="CV196" s="4"/>
-      <c r="CW196" s="4"/>
-    </row>
-    <row r="197" spans="100:101">
+    </row>
+    <row r="197" spans="99:100">
+      <c r="CU197" s="4"/>
       <c r="CV197" s="4"/>
-      <c r="CW197" s="4"/>
-    </row>
-    <row r="198" spans="100:101">
+    </row>
+    <row r="198" spans="99:100">
+      <c r="CU198" s="4"/>
       <c r="CV198" s="4"/>
-      <c r="CW198" s="4"/>
-    </row>
-    <row r="199" spans="100:101">
+    </row>
+    <row r="199" spans="99:100">
+      <c r="CU199" s="4"/>
       <c r="CV199" s="4"/>
-      <c r="CW199" s="4"/>
-    </row>
-    <row r="200" spans="100:101">
+    </row>
+    <row r="200" spans="99:100">
+      <c r="CU200" s="4"/>
       <c r="CV200" s="4"/>
-      <c r="CW200" s="4"/>
-    </row>
-    <row r="201" spans="100:101">
+    </row>
+    <row r="201" spans="99:100">
+      <c r="CU201" s="4"/>
       <c r="CV201" s="4"/>
-      <c r="CW201" s="4"/>
-    </row>
-    <row r="202" spans="100:101">
+    </row>
+    <row r="202" spans="99:100">
+      <c r="CU202" s="4"/>
       <c r="CV202" s="4"/>
-      <c r="CW202" s="4"/>
-    </row>
-    <row r="203" spans="100:101">
+    </row>
+    <row r="203" spans="99:100">
+      <c r="CU203" s="4"/>
       <c r="CV203" s="4"/>
-      <c r="CW203" s="4"/>
-    </row>
-    <row r="204" spans="100:101">
+    </row>
+    <row r="204" spans="99:100">
+      <c r="CU204" s="4"/>
       <c r="CV204" s="4"/>
-      <c r="CW204" s="4"/>
-    </row>
-    <row r="205" spans="100:101">
+    </row>
+    <row r="205" spans="99:100">
+      <c r="CU205" s="4"/>
       <c r="CV205" s="4"/>
-      <c r="CW205" s="4"/>
-    </row>
-    <row r="206" spans="100:101">
+    </row>
+    <row r="206" spans="99:100">
+      <c r="CU206" s="4"/>
       <c r="CV206" s="4"/>
-      <c r="CW206" s="4"/>
-    </row>
-    <row r="207" spans="100:101">
+    </row>
+    <row r="207" spans="99:100">
+      <c r="CU207" s="4"/>
       <c r="CV207" s="4"/>
-      <c r="CW207" s="4"/>
-    </row>
-    <row r="208" spans="100:101">
+    </row>
+    <row r="208" spans="99:100">
+      <c r="CU208" s="4"/>
       <c r="CV208" s="4"/>
-      <c r="CW208" s="4"/>
-    </row>
-    <row r="209" spans="100:101">
+    </row>
+    <row r="209" spans="99:100">
+      <c r="CU209" s="4"/>
       <c r="CV209" s="4"/>
-      <c r="CW209" s="4"/>
-    </row>
-    <row r="210" spans="100:101">
+    </row>
+    <row r="210" spans="99:100">
+      <c r="CU210" s="4"/>
       <c r="CV210" s="4"/>
-      <c r="CW210" s="4"/>
-    </row>
-    <row r="211" spans="100:101">
+    </row>
+    <row r="211" spans="99:100">
+      <c r="CU211" s="4"/>
       <c r="CV211" s="4"/>
-      <c r="CW211" s="4"/>
-    </row>
-    <row r="212" spans="100:101">
+    </row>
+    <row r="212" spans="99:100">
+      <c r="CU212" s="4"/>
       <c r="CV212" s="4"/>
-      <c r="CW212" s="4"/>
-    </row>
-    <row r="213" spans="100:101">
+    </row>
+    <row r="213" spans="99:100">
+      <c r="CU213" s="4"/>
       <c r="CV213" s="4"/>
-      <c r="CW213" s="4"/>
-    </row>
-    <row r="214" spans="100:101">
+    </row>
+    <row r="214" spans="99:100">
+      <c r="CU214" s="4"/>
       <c r="CV214" s="4"/>
-      <c r="CW214" s="4"/>
-    </row>
-    <row r="215" spans="100:101">
+    </row>
+    <row r="215" spans="99:100">
+      <c r="CU215" s="4"/>
       <c r="CV215" s="4"/>
-      <c r="CW215" s="4"/>
-    </row>
-    <row r="216" spans="100:101">
+    </row>
+    <row r="216" spans="99:100">
+      <c r="CU216" s="4"/>
       <c r="CV216" s="4"/>
-      <c r="CW216" s="4"/>
-    </row>
-    <row r="217" spans="100:101">
+    </row>
+    <row r="217" spans="99:100">
+      <c r="CU217" s="4"/>
       <c r="CV217" s="4"/>
-      <c r="CW217" s="4"/>
-    </row>
-    <row r="218" spans="100:101">
+    </row>
+    <row r="218" spans="99:100">
+      <c r="CU218" s="4"/>
       <c r="CV218" s="4"/>
-      <c r="CW218" s="4"/>
-    </row>
-    <row r="219" spans="100:101">
+    </row>
+    <row r="219" spans="99:100">
+      <c r="CU219" s="4"/>
       <c r="CV219" s="4"/>
-      <c r="CW219" s="4"/>
-    </row>
-    <row r="220" spans="100:101">
+    </row>
+    <row r="220" spans="99:100">
+      <c r="CU220" s="4"/>
       <c r="CV220" s="4"/>
-      <c r="CW220" s="4"/>
-    </row>
-    <row r="221" spans="100:101">
+    </row>
+    <row r="221" spans="99:100">
+      <c r="CU221" s="4"/>
       <c r="CV221" s="4"/>
-      <c r="CW221" s="4"/>
-    </row>
-    <row r="222" spans="100:101">
+    </row>
+    <row r="222" spans="99:100">
+      <c r="CU222" s="4"/>
       <c r="CV222" s="4"/>
-      <c r="CW222" s="4"/>
-    </row>
-    <row r="223" spans="100:101">
+    </row>
+    <row r="223" spans="99:100">
+      <c r="CU223" s="4"/>
       <c r="CV223" s="4"/>
-      <c r="CW223" s="4"/>
-    </row>
-    <row r="224" spans="100:101">
+    </row>
+    <row r="224" spans="99:100">
+      <c r="CU224" s="4"/>
       <c r="CV224" s="4"/>
-      <c r="CW224" s="4"/>
-    </row>
-    <row r="225" spans="100:101">
+    </row>
+    <row r="225" spans="99:100">
+      <c r="CU225" s="4"/>
       <c r="CV225" s="4"/>
-      <c r="CW225" s="4"/>
-    </row>
-    <row r="226" spans="100:101">
+    </row>
+    <row r="226" spans="99:100">
+      <c r="CU226" s="4"/>
       <c r="CV226" s="4"/>
-      <c r="CW226" s="4"/>
-    </row>
-    <row r="227" spans="100:101">
+    </row>
+    <row r="227" spans="99:100">
+      <c r="CU227" s="4"/>
       <c r="CV227" s="4"/>
-      <c r="CW227" s="4"/>
-    </row>
-    <row r="228" spans="100:101">
+    </row>
+    <row r="228" spans="99:100">
+      <c r="CU228" s="4"/>
       <c r="CV228" s="4"/>
-      <c r="CW228" s="4"/>
-    </row>
-    <row r="229" spans="100:101">
+    </row>
+    <row r="229" spans="99:100">
+      <c r="CU229" s="4"/>
       <c r="CV229" s="4"/>
-      <c r="CW229" s="4"/>
-    </row>
-    <row r="230" spans="100:101">
+    </row>
+    <row r="230" spans="99:100">
+      <c r="CU230" s="4"/>
       <c r="CV230" s="4"/>
-      <c r="CW230" s="4"/>
-    </row>
-    <row r="231" spans="100:101">
+    </row>
+    <row r="231" spans="99:100">
+      <c r="CU231" s="4"/>
       <c r="CV231" s="4"/>
-      <c r="CW231" s="4"/>
-    </row>
-    <row r="232" spans="100:101">
+    </row>
+    <row r="232" spans="99:100">
+      <c r="CU232" s="4"/>
       <c r="CV232" s="4"/>
-      <c r="CW232" s="4"/>
-    </row>
-    <row r="233" spans="100:101">
+    </row>
+    <row r="233" spans="99:100">
+      <c r="CU233" s="4"/>
       <c r="CV233" s="4"/>
-      <c r="CW233" s="4"/>
-    </row>
-    <row r="234" spans="100:101">
+    </row>
+    <row r="234" spans="99:100">
+      <c r="CU234" s="4"/>
       <c r="CV234" s="4"/>
-      <c r="CW234" s="4"/>
-    </row>
-    <row r="235" spans="100:101">
+    </row>
+    <row r="235" spans="99:100">
+      <c r="CU235" s="4"/>
       <c r="CV235" s="4"/>
-      <c r="CW235" s="4"/>
-    </row>
-    <row r="236" spans="100:101">
+    </row>
+    <row r="236" spans="99:100">
+      <c r="CU236" s="4"/>
       <c r="CV236" s="4"/>
-      <c r="CW236" s="4"/>
-    </row>
-    <row r="237" spans="100:101">
+    </row>
+    <row r="237" spans="99:100">
+      <c r="CU237" s="4"/>
       <c r="CV237" s="4"/>
-      <c r="CW237" s="4"/>
-    </row>
-    <row r="238" spans="100:101">
+    </row>
+    <row r="238" spans="99:100">
+      <c r="CU238" s="4"/>
       <c r="CV238" s="4"/>
-      <c r="CW238" s="4"/>
-    </row>
-    <row r="239" spans="100:101">
+    </row>
+    <row r="239" spans="99:100">
+      <c r="CU239" s="4"/>
       <c r="CV239" s="4"/>
-      <c r="CW239" s="4"/>
-    </row>
-    <row r="240" spans="100:101">
+    </row>
+    <row r="240" spans="99:100">
+      <c r="CU240" s="4"/>
       <c r="CV240" s="4"/>
-      <c r="CW240" s="4"/>
-    </row>
-    <row r="241" spans="100:101">
+    </row>
+    <row r="241" spans="99:100">
+      <c r="CU241" s="4"/>
       <c r="CV241" s="4"/>
-      <c r="CW241" s="4"/>
-    </row>
-    <row r="242" spans="100:101">
+    </row>
+    <row r="242" spans="99:100">
+      <c r="CU242" s="4"/>
       <c r="CV242" s="4"/>
-      <c r="CW242" s="4"/>
-    </row>
-    <row r="243" spans="100:101">
+    </row>
+    <row r="243" spans="99:100">
+      <c r="CU243" s="4"/>
       <c r="CV243" s="4"/>
-      <c r="CW243" s="4"/>
-    </row>
-    <row r="244" spans="100:101">
+    </row>
+    <row r="244" spans="99:100">
+      <c r="CU244" s="4"/>
       <c r="CV244" s="4"/>
-      <c r="CW244" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:CU4"/>
+  <autoFilter ref="A4:CT4"/>
   <mergeCells count="9">
-    <mergeCell ref="A1:CU1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="CT2:CU2"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="W2:AF2"/>
-    <mergeCell ref="AG2:AM2"/>
-    <mergeCell ref="AN2:BN2"/>
-    <mergeCell ref="BY2:CK2"/>
-    <mergeCell ref="BO2:BX2"/>
+    <mergeCell ref="A1:CT1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CK2:CQ2"/>
+    <mergeCell ref="V2:AE2"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AM2:BM2"/>
+    <mergeCell ref="BX2:CJ2"/>
+    <mergeCell ref="BN2:BW2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3561,11 +3554,119 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ContentTypeId="0x010109" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <BB_x0020_Keywords xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <Delivery_x0020_Stream xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <dd96fca6772e4867a9208609779574a7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
+        </TermInfo>
+      </Terms>
+    </dd96fca6772e4867a9208609779574a7>
+    <b249b6a8f62b4bc7904c2f5bc1687ac3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
+        </TermInfo>
+      </Terms>
+    </b249b6a8f62b4bc7904c2f5bc1687ac3>
+    <Document_x0020_Source_x0020_Link xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <BB_x0020_Description xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <n3dcd34f14d14173a15c5e7b17b9407e xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n3dcd34f14d14173a15c5e7b17b9407e>
+    <cc14bf1737424455b1020a98eb93ddb0 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
+        </TermInfo>
+      </Terms>
+    </cc14bf1737424455b1020a98eb93ddb0>
+    <Content_x0020_Owner xmlns="3a827281-27b5-422c-a54b-bb9b794c9526">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId>2851</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Content_x0020_Owner>
+    <o3583a83cab34062a8e9cec91a8b96c2 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o3583a83cab34062a8e9cec91a8b96c2>
+    <pbcd3bbf9c184baca9fdd3a5eb53df48 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
+        </TermInfo>
+      </Terms>
+    </pbcd3bbf9c184baca9fdd3a5eb53df48>
+    <b5489ffb3a31468a843bf304fbb03bd4 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
+        </TermInfo>
+      </Terms>
+    </b5489ffb3a31468a843bf304fbb03bd4>
+    <a2560a1fc8734eaea64c5ed5193c1f4f xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
+        </TermInfo>
+      </Terms>
+    </a2560a1fc8734eaea64c5ed5193c1f4f>
+    <b28cb21585424c81a811c4e1bc4c5a60 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b28cb21585424c81a811c4e1bc4c5a60>
+    <BB_x0020_Status xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">Final</BB_x0020_Status>
+    <l1d8d357f45743ed94acc3dfcbbb143b xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l1d8d357f45743ed94acc3dfcbbb143b>
+    <p7f54e0c5c724ee0984058454c0cb3e3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
+        </TermInfo>
+      </Terms>
+    </p7f54e0c5c724ee0984058454c0cb3e3>
+    <he3cc7de101a4b15bc22e4e03cb53b52 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
+        </TermInfo>
+      </Terms>
+    </he3cc7de101a4b15bc22e4e03cb53b52>
+    <f39c3348ff15467a8f593fbefec55be7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f39c3348ff15467a8f593fbefec55be7>
+    <TaxCatchAll xmlns="296ada00-b809-4a3e-b87e-6e6c5efe7723">
+      <Value>253</Value>
+      <Value>222</Value>
+      <Value>100</Value>
+      <Value>275</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="General" ma:contentTypeID="0x0101090002A9BFB70928524F98202F9A34B833F70100C2EA550E6B4A74439F5945D0DD9F3754" ma:contentTypeVersion="57" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="f439cd5624696faba63ed122ddfb48f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1a035045-18fd-432c-a5de-6497d89eeef1" xmlns:ns3="3a827281-27b5-422c-a54b-bb9b794c9526" xmlns:ns4="296ada00-b809-4a3e-b87e-6e6c5efe7723" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59d276b1db43b94d1b826cec67521e7c" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3929,117 +4030,9 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <BB_x0020_Keywords xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <Delivery_x0020_Stream xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <dd96fca6772e4867a9208609779574a7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
-        </TermInfo>
-      </Terms>
-    </dd96fca6772e4867a9208609779574a7>
-    <b249b6a8f62b4bc7904c2f5bc1687ac3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
-        </TermInfo>
-      </Terms>
-    </b249b6a8f62b4bc7904c2f5bc1687ac3>
-    <Document_x0020_Source_x0020_Link xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <BB_x0020_Description xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <n3dcd34f14d14173a15c5e7b17b9407e xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n3dcd34f14d14173a15c5e7b17b9407e>
-    <cc14bf1737424455b1020a98eb93ddb0 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
-        </TermInfo>
-      </Terms>
-    </cc14bf1737424455b1020a98eb93ddb0>
-    <Content_x0020_Owner xmlns="3a827281-27b5-422c-a54b-bb9b794c9526">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId>2851</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Content_x0020_Owner>
-    <o3583a83cab34062a8e9cec91a8b96c2 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o3583a83cab34062a8e9cec91a8b96c2>
-    <pbcd3bbf9c184baca9fdd3a5eb53df48 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
-        </TermInfo>
-      </Terms>
-    </pbcd3bbf9c184baca9fdd3a5eb53df48>
-    <b5489ffb3a31468a843bf304fbb03bd4 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
-        </TermInfo>
-      </Terms>
-    </b5489ffb3a31468a843bf304fbb03bd4>
-    <a2560a1fc8734eaea64c5ed5193c1f4f xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
-        </TermInfo>
-      </Terms>
-    </a2560a1fc8734eaea64c5ed5193c1f4f>
-    <b28cb21585424c81a811c4e1bc4c5a60 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b28cb21585424c81a811c4e1bc4c5a60>
-    <BB_x0020_Status xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">Final</BB_x0020_Status>
-    <l1d8d357f45743ed94acc3dfcbbb143b xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l1d8d357f45743ed94acc3dfcbbb143b>
-    <p7f54e0c5c724ee0984058454c0cb3e3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
-        </TermInfo>
-      </Terms>
-    </p7f54e0c5c724ee0984058454c0cb3e3>
-    <he3cc7de101a4b15bc22e4e03cb53b52 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
-        </TermInfo>
-      </Terms>
-    </he3cc7de101a4b15bc22e4e03cb53b52>
-    <f39c3348ff15467a8f593fbefec55be7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f39c3348ff15467a8f593fbefec55be7>
-    <TaxCatchAll xmlns="296ada00-b809-4a3e-b87e-6e6c5efe7723">
-      <Value>253</Value>
-      <Value>222</Value>
-      <Value>100</Value>
-      <Value>275</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ContentTypeId="0x010109" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4051,14 +4044,41 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7FF559-BE89-4A1A-9D8A-3989B3C6A937}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4916512A-AE00-48A6-9D10-27E7167AC265}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3a827281-27b5-422c-a54b-bb9b794c9526"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1a035045-18fd-432c-a5de-6497d89eeef1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83E2AB-B48E-44C4-B8EB-E6056420B98C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA07D598-9A98-4765-BFAC-8143C8F43016}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EF8F863-970A-43A6-B22E-CCAF24337F16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4079,37 +4099,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA07D598-9A98-4765-BFAC-8143C8F43016}">
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7FF559-BE89-4A1A-9D8A-3989B3C6A937}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83E2AB-B48E-44C4-B8EB-E6056420B98C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4916512A-AE00-48A6-9D10-27E7167AC265}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3a827281-27b5-422c-a54b-bb9b794c9526"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1a035045-18fd-432c-a5de-6497d89eeef1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>